--- a/public/report/monitoring/rbm.xlsx
+++ b/public/report/monitoring/rbm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\golang\src\github.com\bbliong\sim-bmm\public\report\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BD3CAE-EC16-40F5-88AB-A6948A94A276}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88704CD2-8089-4A33-B7B3-7E017B2AD20D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,24 +164,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -198,9 +186,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,170 +526,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="24" style="2" customWidth="1"/>
-    <col min="19" max="19" width="31.140625" style="2" customWidth="1"/>
-    <col min="20" max="21" width="16.5703125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16" style="2" customWidth="1"/>
-    <col min="23" max="23" width="19" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="25.28515625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="16" style="2" customWidth="1"/>
-    <col min="27" max="27" width="6.42578125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24" style="1" customWidth="1"/>
+    <col min="19" max="19" width="31.140625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="16.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="25.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A1:N3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
